--- a/DesignerConfigs/Datas/common/全局常量配置表.xlsx
+++ b/DesignerConfigs/Datas/common/全局常量配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\X6GameP4dan\X6Game\DesignerConfigs\common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C59DA29-4652-405F-AB62-1C75699366F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9542693-09B2-4354-9BCF-8F828FA022C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{024915E7-E294-4FD7-9063-032AA423A689}"/>
+    <workbookView xWindow="29760" yWindow="390" windowWidth="27645" windowHeight="14835" xr2:uid="{024915E7-E294-4FD7-9063-032AA423A689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,9 +440,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -758,7 +758,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,7 +1001,7 @@
         <v>44</v>
       </c>
       <c r="C18" s="8">
-        <v>1001</v>
+        <v>1</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>

--- a/DesignerConfigs/Datas/common/全局常量配置表.xlsx
+++ b/DesignerConfigs/Datas/common/全局常量配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9542693-09B2-4354-9BCF-8F828FA022C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFE216-E679-4C32-AE65-84E90B44C193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="390" windowWidth="27645" windowHeight="14835" xr2:uid="{024915E7-E294-4FD7-9063-032AA423A689}"/>
+    <workbookView xWindow="35010" yWindow="3285" windowWidth="27645" windowHeight="14835" xr2:uid="{024915E7-E294-4FD7-9063-032AA423A689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,11 +30,222 @@
     <t>##</t>
   </si>
   <si>
-    <t>row:false</t>
+    <t>通用参数名</t>
+  </si>
+  <si>
+    <t>程序中的字段名称</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>具体参数</t>
+  </si>
+  <si>
+    <t>bag_capacity</t>
+  </si>
+  <si>
+    <t>背包容量</t>
+  </si>
+  <si>
+    <t>bag_capacity_special</t>
+  </si>
+  <si>
+    <t>额外添加的格子容量</t>
+  </si>
+  <si>
+    <t>bag_temp_expendable_capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  临时消耗品背包最大容量</t>
+  </si>
+  <si>
+    <t>bag_temp_tool_capacity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  临时工具背包每种工具类型的最大格子数量</t>
+  </si>
+  <si>
+    <t>bag_init_capacity</t>
+  </si>
+  <si>
+    <t>背包的初始容量</t>
+  </si>
+  <si>
+    <t>quick_bag_capacity</t>
+  </si>
+  <si>
+    <t>快捷背包的个数</t>
+  </si>
+  <si>
+    <t>cloth_bag_capacity</t>
+  </si>
+  <si>
+    <t>服装背包的最大容量</t>
+  </si>
+  <si>
+    <t>cloth_bag_init_capacity</t>
+  </si>
+  <si>
+    <t>服装背包的初始容量</t>
+  </si>
+  <si>
+    <t>cloth_bag_capacity_special</t>
+  </si>
+  <si>
+    <t>服装背包额外增加的格子容量</t>
+  </si>
+  <si>
+    <t>mail_box_capacity</t>
+  </si>
+  <si>
+    <t>玩家邮件最大容量</t>
+  </si>
+  <si>
+    <t>init_skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_param_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_param_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_param_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage_param_f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_custom_collocation_num</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义套装最大数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_suit_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始套装id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家初始能量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bag_init_items_drop_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包初始内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battle_total_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装比拼时间（进入战斗的计时时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth_jewery_num_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首饰可穿戴的最大数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始体力数值</t>
+  </si>
+  <si>
+    <t>初始体力上限</t>
+  </si>
+  <si>
+    <t>init_viality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_viality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力回复速度（参数为每点所需时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per_viality_recovery_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换装比拼能量上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothbattle_energy_max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cloth_fast_change_cd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷换装CD时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_quest_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  角色初始任务id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quest_guide_h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标为坐标时的引导点距地面的高度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>t</t>
+      <t>o</t>
     </r>
     <r>
       <rPr>
@@ -45,223 +256,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>itle_rows:2</t>
+      <t>rientation=portrait</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通用参数名</t>
-  </si>
-  <si>
-    <t>程序中的字段名称</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>具体参数</t>
-  </si>
-  <si>
-    <t>bag_capacity</t>
-  </si>
-  <si>
-    <t>背包容量</t>
-  </si>
-  <si>
-    <t>bag_capacity_special</t>
-  </si>
-  <si>
-    <t>额外添加的格子容量</t>
-  </si>
-  <si>
-    <t>bag_temp_expendable_capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  临时消耗品背包最大容量</t>
-  </si>
-  <si>
-    <t>bag_temp_tool_capacity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  临时工具背包每种工具类型的最大格子数量</t>
-  </si>
-  <si>
-    <t>bag_init_capacity</t>
-  </si>
-  <si>
-    <t>背包的初始容量</t>
-  </si>
-  <si>
-    <t>quick_bag_capacity</t>
-  </si>
-  <si>
-    <t>快捷背包的个数</t>
-  </si>
-  <si>
-    <t>cloth_bag_capacity</t>
-  </si>
-  <si>
-    <t>服装背包的最大容量</t>
-  </si>
-  <si>
-    <t>cloth_bag_init_capacity</t>
-  </si>
-  <si>
-    <t>服装背包的初始容量</t>
-  </si>
-  <si>
-    <t>cloth_bag_capacity_special</t>
-  </si>
-  <si>
-    <t>服装背包额外增加的格子容量</t>
-  </si>
-  <si>
-    <t>mail_box_capacity</t>
-  </si>
-  <si>
-    <t>玩家邮件最大容量</t>
-  </si>
-  <si>
-    <t>init_skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage_param_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage_param_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage_param_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>damage_param_f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monster_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_custom_collocation_num</t>
+    <t>title_rows=2</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义套装最大数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_suit_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始套装id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家初始能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bag_init_items_drop_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包初始内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battle_total_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换装比拼时间（进入战斗的计时时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloth_jewery_num_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>首饰可穿戴的最大数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始体力数值</t>
-  </si>
-  <si>
-    <t>初始体力上限</t>
-  </si>
-  <si>
-    <t>init_viality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_viality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力回复速度（参数为每点所需时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per_viality_recovery_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换装比拼能量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clothbattle_energy_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cloth_fast_change_cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快捷换装CD时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_quest_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  角色初始任务id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_guide_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标为坐标时的引导点距地面的高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -405,7 +406,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -438,11 +439,14 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -758,7 +762,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -772,11 +776,11 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -792,7 +796,7 @@
     </row>
     <row r="3" spans="1:7" ht="72.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -802,13 +806,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -824,10 +828,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6">
         <v>1101001101</v>
@@ -838,10 +842,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6">
         <v>150</v>
@@ -860,10 +864,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" s="8">
         <v>500</v>
@@ -875,10 +879,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8">
         <v>50</v>
@@ -890,10 +894,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="8">
         <v>10</v>
@@ -905,10 +909,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8">
         <v>4</v>
@@ -920,10 +924,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8">
         <v>100</v>
@@ -935,10 +939,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8">
         <v>4</v>
@@ -950,10 +954,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="8">
         <v>1000</v>
@@ -965,10 +969,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C16" s="8">
         <v>500</v>
@@ -980,10 +984,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="8">
         <v>50</v>
@@ -995,10 +999,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
@@ -1018,10 +1022,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" s="10">
         <v>1002</v>
@@ -1032,10 +1036,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="10">
         <v>3</v>
@@ -1054,10 +1058,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="7">
         <v>100</v>
@@ -1076,10 +1080,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11">
         <v>1001</v>
@@ -1090,7 +1094,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11">
@@ -1102,7 +1106,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11">
@@ -1114,7 +1118,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11">
@@ -1126,7 +1130,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11">
@@ -1146,10 +1150,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C31" s="8">
         <v>5</v>
@@ -1160,10 +1164,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C32" s="8">
         <v>5</v>
@@ -1174,10 +1178,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" s="8">
         <v>0</v>
@@ -1188,10 +1192,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="8">
         <v>4</v>
@@ -1202,10 +1206,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="8">
         <v>100</v>
@@ -1216,10 +1220,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" s="8">
         <v>100</v>
@@ -1230,10 +1234,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C37" s="8">
         <v>300</v>
@@ -1260,10 +1264,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40" s="7">
         <v>40</v>
@@ -1274,10 +1278,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C41" s="7">
         <v>5</v>
@@ -1288,10 +1292,10 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C42" s="7">
         <v>1.5</v>

--- a/DesignerConfigs/Datas/common/全局常量配置表.xlsx
+++ b/DesignerConfigs/Datas/common/全局常量配置表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BFE216-E679-4C32-AE65-84E90B44C193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1979087A-24D8-47AD-91AA-6CBA97C3ACAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35010" yWindow="3285" windowWidth="27645" windowHeight="14835" xr2:uid="{024915E7-E294-4FD7-9063-032AA423A689}"/>
+    <workbookView xWindow="570" yWindow="255" windowWidth="27645" windowHeight="14835" xr2:uid="{024915E7-E294-4FD7-9063-032AA423A689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -244,24 +244,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>o</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>rientation=portrait</t>
-    </r>
+    <t>title_rows=2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>title_rows=2</t>
+    <t>orientation=c</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +749,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -777,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>

--- a/DesignerConfigs/Datas/common/全局常量配置表.xlsx
+++ b/DesignerConfigs/Datas/common/全局常量配置表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1979087A-24D8-47AD-91AA-6CBA97C3ACAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC76232E-5D27-4241-AA11-51B89E62A127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="255" windowWidth="27645" windowHeight="14835" xr2:uid="{024915E7-E294-4FD7-9063-032AA423A689}"/>
+    <workbookView xWindow="31905" yWindow="3645" windowWidth="25335" windowHeight="12915" xr2:uid="{024915E7-E294-4FD7-9063-032AA423A689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>通用参数名</t>
-  </si>
-  <si>
-    <t>程序中的字段名称</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>描述</t>
   </si>
@@ -244,11 +242,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>title_rows=2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>orientation=c</t>
+    <t>##column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>##</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,14 +287,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="2"/>
@@ -320,18 +310,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -383,47 +367,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -746,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B9DF0C-3E13-4094-B657-FA0571640DBF}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -761,535 +736,513 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="2"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="72.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1101001101</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3">
+        <v>150</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>500</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>100</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5">
+        <v>500</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>50</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1002</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7">
         <v>3</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4">
+        <v>100</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1001</v>
+      </c>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8">
+        <v>10</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5">
+        <v>5</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="5">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1101001101</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6">
-        <v>150</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="5">
+        <v>100</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="5">
+        <v>100</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="5">
+        <v>300</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="4">
+        <v>40</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="8">
-        <v>500</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8">
-        <v>50</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="8">
-        <v>10</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8">
-        <v>4</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8">
-        <v>100</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8">
-        <v>4</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8">
-        <v>500</v>
-      </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="8">
-        <v>50</v>
-      </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="10">
-        <v>1002</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="10">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="7">
-        <v>100</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="11">
-        <v>1001</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11">
-        <v>0.8</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11">
-        <v>10</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="8">
-        <v>5</v>
-      </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="8">
-        <v>5</v>
-      </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C34" s="8">
-        <v>4</v>
-      </c>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="8">
-        <v>100</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="8">
-        <v>100</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="8">
-        <v>300</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C40" s="7">
-        <v>40</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="7">
-        <v>5</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="7">
+      <c r="C40" s="4">
         <v>1.5</v>
       </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/DesignerConfigs/Datas/common/全局常量配置表.xlsx
+++ b/DesignerConfigs/Datas/common/全局常量配置表.xlsx
@@ -1,45 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC76232E-5D27-4241-AA11-51B89E62A127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="31905" yWindow="3645" windowWidth="25335" windowHeight="12915" xr2:uid="{024915E7-E294-4FD7-9063-032AA423A689}"/>
+    <workbookView windowWidth="20130" windowHeight="8865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
+    <t>##column#var</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
     <t>具体参数</t>
   </si>
   <si>
+    <t>init_quest_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  角色初始任务id</t>
+  </si>
+  <si>
+    <t>quest_guide_h</t>
+  </si>
+  <si>
+    <t>目标为坐标时的引导点距地面的高度</t>
+  </si>
+  <si>
     <t>bag_capacity</t>
   </si>
   <si>
@@ -94,6 +94,24 @@
     <t>服装背包额外增加的格子容量</t>
   </si>
   <si>
+    <t>bag_init_items_drop_id</t>
+  </si>
+  <si>
+    <t>背包初始内容</t>
+  </si>
+  <si>
+    <t>init_suit_id</t>
+  </si>
+  <si>
+    <t>初始套装id</t>
+  </si>
+  <si>
+    <t>init_custom_collocation_num</t>
+  </si>
+  <si>
+    <t>自定义套装最大数量</t>
+  </si>
+  <si>
     <t>mail_box_capacity</t>
   </si>
   <si>
@@ -101,216 +119,261 @@
   </si>
   <si>
     <t>init_skills</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>初始技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>damage_param_c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>damage_param_d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>damage_param_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>damage_param_f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>role_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>角色速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>monster_speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>怪物速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_custom_collocation_num</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>自定义套装最大数量</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_suit_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始套装id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>init_energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>玩家初始能量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bag_init_items_drop_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包初始内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothbattle_energy_max</t>
+  </si>
+  <si>
+    <t>换装比拼能量上限</t>
+  </si>
+  <si>
+    <t>init_viality</t>
+  </si>
+  <si>
+    <t>初始体力数值</t>
+  </si>
+  <si>
+    <t>max_viality</t>
+  </si>
+  <si>
+    <t>初始体力上限</t>
+  </si>
+  <si>
+    <t>per_viality_recovery_time</t>
+  </si>
+  <si>
+    <t>体力回复速度（参数为每点所需时</t>
   </si>
   <si>
     <t>battle_total_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>换装比拼时间（进入战斗的计时时间）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cloth_jewery_num_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>首饰可穿戴的最大数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始体力数值</t>
-  </si>
-  <si>
-    <t>初始体力上限</t>
-  </si>
-  <si>
-    <t>init_viality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max_viality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力回复速度（参数为每点所需时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>per_viality_recovery_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>换装比拼能量上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clothbattle_energy_max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>cloth_fast_change_cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>快捷换装CD时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>init_quest_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  角色初始任务id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>quest_guide_h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标为坐标时的引导点距地面的高度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,27 +382,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -362,18 +596,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -382,43 +849,84 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="29" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="29">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="30" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
-    <cellStyle name="适中" xfId="3" builtinId="28"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -467,7 +975,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -500,26 +1008,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -552,23 +1043,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -710,104 +1184,99 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68B9DF0C-3E13-4094-B657-FA0571640DBF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.6285714285714" customWidth="1"/>
+    <col min="2" max="2" width="41.247619047619" customWidth="1"/>
+    <col min="3" max="3" width="11.6285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4">
         <v>1101001101</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
         <v>150</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5">
         <v>500</v>
@@ -817,12 +1286,12 @@
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="5">
         <v>50</v>
@@ -832,12 +1301,12 @@
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="5">
         <v>10</v>
@@ -847,12 +1316,12 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5">
         <v>4</v>
@@ -862,12 +1331,12 @@
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5">
         <v>100</v>
@@ -877,12 +1346,12 @@
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5">
         <v>4</v>
@@ -892,12 +1361,12 @@
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5">
         <v>1000</v>
@@ -907,12 +1376,12 @@
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C14" s="5">
         <v>500</v>
@@ -922,12 +1391,12 @@
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C15" s="5">
         <v>50</v>
@@ -937,12 +1406,12 @@
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="5" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
@@ -952,301 +1421,301 @@
       <c r="F16" s="5"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1002</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="7">
+        <v>100</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B23" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="7">
-        <v>1002</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4">
-        <v>100</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="8">
+      <c r="C23" s="9">
         <v>1001</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8">
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9">
         <v>1</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8">
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9">
         <v>0.8</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9">
         <v>0.75</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8">
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9">
         <v>10</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C29" s="5">
         <v>5</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C30" s="5">
         <v>5</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C32" s="5">
         <v>4</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5">
         <v>100</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C34" s="5">
         <v>100</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C35" s="5">
         <v>300</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="7">
         <v>40</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="4">
-        <v>40</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="7">
         <v>5</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="7">
         <v>1.5</v>
       </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>